--- a/lemonadeApplicationProfile.xlsx
+++ b/lemonadeApplicationProfile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="151">
   <si>
     <t>Element Name</t>
   </si>
@@ -448,21 +448,6 @@
     <t>Related Item Identifier</t>
   </si>
   <si>
-    <t>If including a relatedItem, you must at the very least note its collection identifier.</t>
-  </si>
-  <si>
-    <t>Related Item Identifier Type</t>
-  </si>
-  <si>
-    <t>Related Item Identifier Value</t>
-  </si>
-  <si>
-    <t>Include the identifier type. You must include the type "Collection".</t>
-  </si>
-  <si>
-    <t>Include the identifier value. You must include the lemonade.[ordered number] value.</t>
-  </si>
-  <si>
     <t>Add the simple type for the object.</t>
   </si>
   <si>
@@ -475,9 +460,6 @@
     <t>Add anywhere from a short rights statement to an extensive statement.</t>
   </si>
   <si>
-    <t>&lt;mods:relatedItem type="references"&gt;&lt;mods:titleInfo&gt;&lt;mods:title&gt;Moving Beyond Pain&lt;/mods:title&gt;&lt;/mods:titleInfo&gt;&lt;mods:name authority="naf"&gt;&lt;mods:namePart&gt;hooks, bell&lt;/mods:namePart&gt;&lt;mods:namePart type="date"&gt;1952-&lt;/mods:namePart&gt;&lt;/mods:name&gt;&lt;lemon:idenftifier&gt;&lt;lemon:identifierType&gt;Collection&lt;/lemon:identifierType&gt;&lt;lemon:idenfitierValue&gt;lemonade.7&lt;/lemon:identifierValue&gt;&lt;/lemon:identifier&gt;&lt;/mods:relatedItem&gt;</t>
-  </si>
-  <si>
     <t>&lt;dc:type&gt;Text&lt;/dc:type&gt;</t>
   </si>
   <si>
@@ -488,6 +470,15 @@
   </si>
   <si>
     <t>&lt;dc:rights&gt;Copyright 2017 Conde Nast&lt;/dc:rights&gt;</t>
+  </si>
+  <si>
+    <t>&lt;mods:relatedItem type="references"&gt;&lt;mods:titleInfo&gt;&lt;mods:title&gt;Moving Beyond Pain&lt;/mods:title&gt;&lt;/mods:titleInfo&gt;&lt;mods:name authority="naf"&gt;&lt;mods:namePart&gt;hooks, bell&lt;/mods:namePart&gt;&lt;mods:namePart type="date"&gt;1952-&lt;/mods:namePart&gt;&lt;/mods:name&gt;&lt;mods:identifier&gt;lemonade.7&lt;/mods:identifier&gt;&lt;/mods:relatedItem&gt;</t>
+  </si>
+  <si>
+    <t>mods:identifier</t>
+  </si>
+  <si>
+    <t>If including a relatedItem, you must include the lemon:identifierValue for type Collection in this space, which is the lemonade.[ordered number] value.</t>
   </si>
 </sst>
 </file>
@@ -552,12 +543,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1007,7 @@
       <c r="G4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="1"/>
@@ -1052,7 +1043,7 @@
       <c r="G5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1084,7 +1075,7 @@
       <c r="G6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1116,7 +1107,7 @@
       <c r="G7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I7" s="1"/>
@@ -1150,7 +1141,7 @@
       <c r="G8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1182,7 +1173,7 @@
       <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1214,7 +1205,7 @@
       <c r="G10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I10" s="1"/>
@@ -1248,7 +1239,7 @@
       <c r="G11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1280,7 +1271,7 @@
       <c r="G12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1314,7 +1305,7 @@
       <c r="G13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>99</v>
       </c>
       <c r="I13" s="1"/>
@@ -1347,7 +1338,7 @@
       <c r="G14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1381,7 +1372,7 @@
       <c r="G15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1413,7 +1404,7 @@
       <c r="G16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1445,7 +1436,7 @@
       <c r="G17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>123</v>
       </c>
       <c r="I17" s="1"/>
@@ -1480,7 +1471,7 @@
       <c r="G18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1511,7 +1502,7 @@
       <c r="G19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1542,7 +1533,7 @@
       <c r="G20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1573,7 +1564,7 @@
       <c r="G21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1604,7 +1595,7 @@
       <c r="G22" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1637,7 +1628,7 @@
       <c r="G23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>128</v>
       </c>
       <c r="I23" s="1"/>
@@ -1671,7 +1662,7 @@
       <c r="G24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1743,8 +1734,8 @@
       <c r="G27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>149</v>
+      <c r="H27" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
@@ -1767,7 +1758,7 @@
       <c r="G28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1789,7 +1780,7 @@
       <c r="G29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1811,7 +1802,7 @@
       <c r="G30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1835,7 +1826,7 @@
       <c r="G31" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1857,11 +1848,11 @@
       <c r="G32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>139</v>
@@ -1877,63 +1868,67 @@
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>142</v>
+      <c r="G34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>18</v>
@@ -1942,84 +1937,56 @@
         <v>10</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>145</v>
+      <c r="G36" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -2073,23 +2040,9 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2108,17 +2061,11 @@
     </row>
     <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H27:H35"/>
+    <mergeCell ref="H27:H33"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="H10:H12"/>

--- a/lemonadeApplicationProfile.xlsx
+++ b/lemonadeApplicationProfile.xlsx
@@ -50,9 +50,6 @@
     <t>Song</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Not Required</t>
   </si>
   <si>
@@ -479,13 +476,16 @@
   </si>
   <si>
     <t>If including a relatedItem, you must include the lemon:identifierValue for type Collection in this space, which is the lemonade.[ordered number] value.</t>
+  </si>
+  <si>
+    <t>DCMIType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +513,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -534,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -865,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F27" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +892,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -919,26 +928,26 @@
     </row>
     <row r="2" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -953,28 +962,28 @@
     </row>
     <row r="3" spans="1:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -989,26 +998,26 @@
     </row>
     <row r="4" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1023,27 +1032,25 @@
     </row>
     <row r="5" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1057,25 +1064,25 @@
     </row>
     <row r="6" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1089,26 +1096,26 @@
     </row>
     <row r="7" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1123,25 +1130,25 @@
     </row>
     <row r="8" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1155,25 +1162,25 @@
     </row>
     <row r="9" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1187,26 +1194,26 @@
     </row>
     <row r="10" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1221,25 +1228,25 @@
     </row>
     <row r="11" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1253,25 +1260,25 @@
     </row>
     <row r="12" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1285,28 +1292,28 @@
     </row>
     <row r="13" spans="1:18" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>99</v>
+      <c r="H13" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1321,24 +1328,24 @@
     </row>
     <row r="14" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1352,27 +1359,27 @@
     </row>
     <row r="15" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1386,25 +1393,25 @@
     </row>
     <row r="16" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1418,26 +1425,26 @@
     </row>
     <row r="17" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1451,27 +1458,27 @@
     </row>
     <row r="18" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1484,25 +1491,25 @@
     </row>
     <row r="19" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1515,25 +1522,25 @@
     </row>
     <row r="20" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1546,25 +1553,25 @@
     </row>
     <row r="21" spans="1:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1577,25 +1584,25 @@
     </row>
     <row r="22" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1608,28 +1615,28 @@
     </row>
     <row r="23" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>128</v>
+      <c r="H23" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1644,328 +1651,330 @@
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
